--- a/com/sca/hem4/fixtures/input/urec.xlsx
+++ b/com/sca/hem4/fixtures/input/urec.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Stolte\IdeaProjects\HEM\fixtures\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_HEM4\HEM4\com\sca\hem4\fixtures\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3C89A-DB78-4DD4-873F-E217F0917387}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B14AF0-061D-4B2D-9897-A9F5B7BB4B8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="7668" xr2:uid="{D576B197-8000-406B-9A1B-60EA6691BF52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D576B197-8000-406B-9A1B-60EA6691BF52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -497,7 +496,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>-86.842940999999996</v>
+        <v>-86.842950999999999</v>
       </c>
       <c r="D2" s="11">
-        <v>34.125970000000002</v>
+        <v>34.125869999999999</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
